--- a/Nivedha/Schwall_Trainee_Nivedha_Timesheet_June_2021.xlsx
+++ b/Nivedha/Schwall_Trainee_Nivedha_Timesheet_June_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="54">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t>getVariable,setVariable :subprocess,parallel</t>
+  </si>
+  <si>
+    <t>Revised all the algorithms and servlets</t>
+  </si>
+  <si>
+    <t>Human task and task lifecycle</t>
   </si>
 </sst>
 </file>
@@ -188,10 +194,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -218,15 +224,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -234,24 +231,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,9 +261,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,18 +292,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -311,15 +308,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,6 +326,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,14 +347,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,6 +356,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,7 +395,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,25 +455,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,31 +491,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,79 +503,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,13 +521,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,37 +718,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -772,16 +758,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -789,8 +775,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -809,151 +806,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1303,7 +1309,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1852,18 +1858,38 @@
       </c>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="9"/>
+      <c r="B34" s="7">
+        <v>31</v>
+      </c>
+      <c r="C34" s="13">
+        <v>44375</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="9"/>
+      <c r="B35" s="7">
+        <v>32</v>
+      </c>
+      <c r="C35" s="13">
+        <v>44375</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="7"/>

--- a/Nivedha/Schwall_Trainee_Nivedha_Timesheet_June_2021.xlsx
+++ b/Nivedha/Schwall_Trainee_Nivedha_Timesheet_June_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="58">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -186,6 +186,19 @@
   </si>
   <si>
     <t>Human task and task lifecycle</t>
+  </si>
+  <si>
+    <t>Camunda</t>
+  </si>
+  <si>
+    <t>Rest API, Basic of Spring Boot and Installing and 
+created a program using spring tool suit.</t>
+  </si>
+  <si>
+    <t>Servlet program and Sql commands</t>
+  </si>
+  <si>
+    <t>Java classes in Bpm</t>
   </si>
 </sst>
 </file>
@@ -193,11 +206,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -225,22 +238,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,14 +267,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,10 +305,48 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -316,21 +366,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -340,29 +375,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,13 +402,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,19 +456,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,61 +468,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,7 +528,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,7 +552,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,37 +582,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,17 +731,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,6 +765,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -774,15 +796,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -793,16 +806,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,160 +823,160 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -983,7 +996,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1308,8 +1324,8 @@
   <sheetPr/>
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1891,26 +1907,56 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="9"/>
+    <row r="36" ht="29" spans="2:6">
+      <c r="B36" s="7">
+        <v>33</v>
+      </c>
+      <c r="C36" s="13">
+        <v>44376</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="9"/>
+      <c r="B37" s="7">
+        <v>34</v>
+      </c>
+      <c r="C37" s="13">
+        <v>44376</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="9"/>
+      <c r="B38" s="7">
+        <v>35</v>
+      </c>
+      <c r="C38" s="13">
+        <v>44376</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="7"/>

--- a/Nivedha/Schwall_Trainee_Nivedha_Timesheet_June_2021.xlsx
+++ b/Nivedha/Schwall_Trainee_Nivedha_Timesheet_June_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="60">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -199,6 +199,13 @@
   </si>
   <si>
     <t>Java classes in Bpm</t>
+  </si>
+  <si>
+    <t>Servlet program,MVC pattern,Spring Framework,
+ jdbc, dependency injection</t>
+  </si>
+  <si>
+    <t>Signals::Practise</t>
   </si>
 </sst>
 </file>
@@ -207,10 +214,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="dd/mmm/yy"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -237,15 +244,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,31 +259,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,29 +325,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -358,16 +359,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,7 +382,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,7 +409,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,97 +553,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,55 +577,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,13 +589,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,9 +740,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -765,21 +789,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -796,26 +805,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -823,156 +815,171 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -996,7 +1003,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1325,7 +1332,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1917,7 +1924,7 @@
       <c r="D36" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E36" s="14" t="s">
         <v>55</v>
       </c>
       <c r="F36" s="9" t="s">
@@ -1958,19 +1965,39 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="9"/>
+    <row r="39" ht="29" spans="2:6">
+      <c r="B39" s="7">
+        <v>36</v>
+      </c>
+      <c r="C39" s="13">
+        <v>44377</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="7"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="9"/>
+      <c r="B40" s="7">
+        <v>37</v>
+      </c>
+      <c r="C40" s="13">
+        <v>44377</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="7"/>

--- a/Nivedha/Schwall_Trainee_Nivedha_Timesheet_June_2021.xlsx
+++ b/Nivedha/Schwall_Trainee_Nivedha_Timesheet_June_2021.xlsx
@@ -214,10 +214,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -244,11 +244,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -266,6 +266,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,25 +281,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -305,10 +298,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -329,17 +322,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -359,8 +351,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,7 +374,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,7 +382,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,25 +409,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,37 +427,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,7 +451,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,13 +535,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,79 +589,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,21 +749,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -788,6 +773,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -799,24 +793,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -835,155 +811,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1003,10 +1003,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1332,7 +1329,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1975,7 +1972,7 @@
       <c r="D39" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F39" s="9" t="s">
@@ -2000,7 +1997,9 @@
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="7"/>
+      <c r="B41" s="7">
+        <v>38</v>
+      </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
